--- a/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ME</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q0</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1757893042286422</v>
+        <v>0.1593214268609282</v>
       </c>
       <c r="C2">
-        <v>1.032394921687946</v>
+        <v>0.9530388315012864</v>
       </c>
       <c r="D2">
-        <v>2.079221955677921</v>
+        <v>1.789561637769041</v>
       </c>
       <c r="E2">
-        <v>1.441950746619981</v>
+        <v>1.337744982337456</v>
       </c>
       <c r="F2">
-        <v>1.436647523685868</v>
+        <v>1.343942917851527</v>
       </c>
       <c r="G2">
-        <v>132</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +452,45 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3071617087109208</v>
+        <v>0.2415278289276089</v>
       </c>
       <c r="C3">
-        <v>1.531736141681192</v>
+        <v>1.283805072964911</v>
       </c>
       <c r="D3">
-        <v>8.791328726835285</v>
+        <v>4.178272106320721</v>
       </c>
       <c r="E3">
-        <v>2.965017491826193</v>
+        <v>2.04408221613533</v>
       </c>
       <c r="F3">
-        <v>2.96334559485756</v>
+        <v>2.037554473565015</v>
       </c>
       <c r="G3">
-        <v>104</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.2686780470899982</v>
+      </c>
+      <c r="C4">
+        <v>1.393831517495066</v>
+      </c>
+      <c r="D4">
+        <v>9.104043377230191</v>
+      </c>
+      <c r="E4">
+        <v>3.017290734621076</v>
+      </c>
+      <c r="F4">
+        <v>3.029838063148228</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_first.xlsx
@@ -429,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1593214268609282</v>
+        <v>0.1579721434076752</v>
       </c>
       <c r="C2">
-        <v>0.9530388315012864</v>
+        <v>0.9336505161243889</v>
       </c>
       <c r="D2">
-        <v>1.789561637769041</v>
+        <v>1.74911684130149</v>
       </c>
       <c r="E2">
-        <v>1.337744982337456</v>
+        <v>1.322541810795216</v>
       </c>
       <c r="F2">
-        <v>1.343942917851527</v>
+        <v>1.328253901032809</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2415278289276089</v>
+        <v>0.246962814551667</v>
       </c>
       <c r="C3">
-        <v>1.283805072964911</v>
+        <v>1.238503523070974</v>
       </c>
       <c r="D3">
-        <v>4.178272106320721</v>
+        <v>3.975336168250551</v>
       </c>
       <c r="E3">
-        <v>2.04408221613533</v>
+        <v>1.993824507886928</v>
       </c>
       <c r="F3">
-        <v>2.037554473565015</v>
+        <v>1.985678071014797</v>
       </c>
       <c r="G3">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2686780470899982</v>
+        <v>0.3026363429728921</v>
       </c>
       <c r="C4">
-        <v>1.393831517495066</v>
+        <v>1.343823136482059</v>
       </c>
       <c r="D4">
-        <v>9.104043377230191</v>
+        <v>8.464273444294301</v>
       </c>
       <c r="E4">
-        <v>3.017290734621076</v>
+        <v>2.90934244190922</v>
       </c>
       <c r="F4">
-        <v>3.029838063148228</v>
+        <v>2.915397665348333</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_first.xlsx
@@ -429,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1579721434076752</v>
+        <v>0.1557069725526251</v>
       </c>
       <c r="C2">
-        <v>0.9336505161243889</v>
+        <v>0.9141480480978561</v>
       </c>
       <c r="D2">
-        <v>1.74911684130149</v>
+        <v>1.710317365282914</v>
       </c>
       <c r="E2">
-        <v>1.322541810795216</v>
+        <v>1.307791025081191</v>
       </c>
       <c r="F2">
-        <v>1.328253901032809</v>
+        <v>1.313161276524253</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,19 +452,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.246962814551667</v>
+        <v>0.2469628145469965</v>
       </c>
       <c r="C3">
-        <v>1.238503523070974</v>
+        <v>1.238503523069014</v>
       </c>
       <c r="D3">
-        <v>3.975336168250551</v>
+        <v>3.975336168247188</v>
       </c>
       <c r="E3">
-        <v>1.993824507886928</v>
+        <v>1.993824507886085</v>
       </c>
       <c r="F3">
-        <v>1.985678071014797</v>
+        <v>1.985678071014529</v>
       </c>
       <c r="G3">
         <v>138</v>
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3026363429728921</v>
+        <v>0.2987143199435805</v>
       </c>
       <c r="C4">
-        <v>1.343823136482059</v>
+        <v>1.355676670930159</v>
       </c>
       <c r="D4">
-        <v>8.464273444294301</v>
+        <v>8.587743180333536</v>
       </c>
       <c r="E4">
-        <v>2.90934244190922</v>
+        <v>2.930485144192602</v>
       </c>
       <c r="F4">
-        <v>2.915397665348333</v>
+        <v>2.937560091001783</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_first.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2469628145469965</v>
+        <v>0.2450315797533715</v>
       </c>
       <c r="C3">
-        <v>1.238503523069014</v>
+        <v>1.195258092086972</v>
       </c>
       <c r="D3">
-        <v>3.975336168247188</v>
+        <v>3.811732247447177</v>
       </c>
       <c r="E3">
-        <v>1.993824507886085</v>
+        <v>1.952365807795039</v>
       </c>
       <c r="F3">
-        <v>1.985678071014529</v>
+        <v>1.943689115874897</v>
       </c>
       <c r="G3">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2987143199435805</v>
+        <v>0.3216218552325188</v>
       </c>
       <c r="C4">
-        <v>1.355676670930159</v>
+        <v>1.318186357591293</v>
       </c>
       <c r="D4">
-        <v>8.587743180333536</v>
+        <v>8.12545414019174</v>
       </c>
       <c r="E4">
-        <v>2.930485144192602</v>
+        <v>2.850518223094134</v>
       </c>
       <c r="F4">
-        <v>2.937560091001783</v>
+        <v>2.852766129210556</v>
       </c>
       <c r="G4">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
